--- a/data/trans_orig/P6702-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8BCD6E9-B81D-45B0-9355-684D3737647F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B7DB42-ACD7-42C8-997C-DD02B0056421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E3ECBEA-95C1-4CD0-86C6-ABCBD9EBAE9F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{910B7B51-04F7-4069-A261-17BBFCFEFF00}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="809">
   <si>
     <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -76,2392 +76,2395 @@
     <t>17,79%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
   </si>
   <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>9,09%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
   </si>
 </sst>
 </file>
@@ -2873,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A57E09-971F-4B7F-AFCA-E628A3E63EAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9484D9D-E191-4974-866D-E7D5C5117818}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3386,13 +3389,13 @@
         <v>105018</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3410,13 @@
         <v>117972</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -3422,13 +3425,13 @@
         <v>96475</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>205</v>
@@ -3437,13 +3440,13 @@
         <v>214447</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3461,13 @@
         <v>72171</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -3473,13 +3476,13 @@
         <v>50515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -3491,10 +3494,10 @@
         <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3512,13 @@
         <v>62890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3524,13 +3527,13 @@
         <v>33141</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>91</v>
@@ -3539,13 +3542,13 @@
         <v>96031</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3604,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3613,13 +3616,13 @@
         <v>68663</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3628,13 +3631,13 @@
         <v>57137</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -3643,13 +3646,13 @@
         <v>125800</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3667,13 @@
         <v>66869</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -3679,13 +3682,13 @@
         <v>48719</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -3694,13 +3697,13 @@
         <v>115587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3718,13 @@
         <v>151922</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>98</v>
@@ -3730,13 +3733,13 @@
         <v>102187</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>248</v>
@@ -3745,13 +3748,13 @@
         <v>254109</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3769,13 @@
         <v>92542</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -3781,13 +3784,13 @@
         <v>41087</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -3796,13 +3799,13 @@
         <v>133629</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3820,13 @@
         <v>46157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -3832,13 +3835,13 @@
         <v>34550</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -3847,13 +3850,13 @@
         <v>80706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,7 +3912,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3921,13 +3924,13 @@
         <v>58237</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>54</v>
@@ -3936,13 +3939,13 @@
         <v>61884</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -3954,10 +3957,10 @@
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3975,13 @@
         <v>48523</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -3987,13 +3990,13 @@
         <v>35177</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -4002,13 +4005,13 @@
         <v>83701</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +4026,13 @@
         <v>140385</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>67</v>
@@ -4038,13 +4041,13 @@
         <v>75652</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>191</v>
@@ -4053,13 +4056,13 @@
         <v>216038</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4077,13 @@
         <v>84023</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -4089,13 +4092,13 @@
         <v>35637</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -4104,13 +4107,13 @@
         <v>119660</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4128,13 @@
         <v>36494</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -4140,13 +4143,13 @@
         <v>16990</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -4155,13 +4158,13 @@
         <v>53484</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,7 +4220,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4229,13 +4232,13 @@
         <v>37167</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4244,13 +4247,13 @@
         <v>17631</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -4259,13 +4262,13 @@
         <v>54798</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4283,13 @@
         <v>16698</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -4295,13 +4298,13 @@
         <v>10451</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -4310,13 +4313,13 @@
         <v>27149</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4334,13 @@
         <v>49319</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -4346,13 +4349,13 @@
         <v>12875</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>57</v>
@@ -4361,13 +4364,13 @@
         <v>62194</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4385,13 @@
         <v>30689</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -4397,13 +4400,13 @@
         <v>19509</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -4412,13 +4415,13 @@
         <v>50198</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4436,13 @@
         <v>23478</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4448,13 +4451,13 @@
         <v>9224</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -4463,13 +4466,13 @@
         <v>32702</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,7 +4528,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4537,13 +4540,13 @@
         <v>1017</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4552,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -4567,13 +4570,13 @@
         <v>1017</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4591,13 @@
         <v>1999</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4603,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -4618,13 +4621,13 @@
         <v>1999</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4642,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4654,13 +4657,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -4669,13 +4672,13 @@
         <v>891</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -4705,13 +4708,13 @@
         <v>1947</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -4720,13 +4723,13 @@
         <v>1947</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4744,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4756,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -4771,13 +4774,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4848,13 @@
         <v>247447</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H40" s="7">
         <v>194</v>
@@ -4860,13 +4863,13 @@
         <v>211094</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M40" s="7">
         <v>426</v>
@@ -4875,10 +4878,10 @@
         <v>458541</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>259</v>
+        <v>112</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>260</v>
@@ -4902,7 +4905,7 @@
         <v>262</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="H41" s="7">
         <v>139</v>
@@ -4914,10 +4917,10 @@
         <v>24</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M41" s="7">
         <v>334</v>
@@ -4926,10 +4929,10 @@
         <v>363369</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>267</v>
@@ -4983,7 +4986,7 @@
         <v>275</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>276</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5001,13 @@
         <v>293440</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H43" s="7">
         <v>156</v>
@@ -5013,13 +5016,13 @@
         <v>171347</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M43" s="7">
         <v>439</v>
@@ -5028,13 +5031,13 @@
         <v>464787</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5052,13 @@
         <v>178277</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H44" s="7">
         <v>96</v>
@@ -5064,13 +5067,13 @@
         <v>104240</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M44" s="7">
         <v>259</v>
@@ -5079,7 +5082,7 @@
         <v>282517</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>188</v>
+        <v>291</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>292</v>
@@ -5163,7 +5166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CB54F3-1DD1-4B00-BE58-2B42C865FE11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F985D9D0-8A83-4A63-97A1-7A6EEC757BE9}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5302,13 +5305,13 @@
         <v>18835</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5317,13 +5320,13 @@
         <v>31978</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5341,13 @@
         <v>12538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5353,13 +5356,13 @@
         <v>15556</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -5368,13 +5371,13 @@
         <v>28093</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5392,13 @@
         <v>24634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>311</v>
+        <v>125</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -5404,13 +5407,13 @@
         <v>33197</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -5419,13 +5422,13 @@
         <v>57831</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5443,13 @@
         <v>20602</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -5455,7 +5458,7 @@
         <v>15751</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>324</v>
@@ -5506,13 +5509,13 @@
         <v>8516</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>333</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -5598,10 +5601,10 @@
         <v>337</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5610,13 +5613,13 @@
         <v>41539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -5664,10 +5667,10 @@
         <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>121</v>
@@ -5679,10 +5682,10 @@
         <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>92</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5700,13 @@
         <v>111273</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H12" s="7">
         <v>99</v>
@@ -5712,13 +5715,13 @@
         <v>95005</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>206</v>
@@ -5727,13 +5730,13 @@
         <v>206279</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,10 +5754,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -5763,10 +5766,10 @@
         <v>57503</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>97</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>364</v>
@@ -5799,13 +5802,13 @@
         <v>39095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5891,7 +5894,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5906,10 +5909,10 @@
         <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -5918,13 +5921,13 @@
         <v>60154</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -5933,13 +5936,13 @@
         <v>126499</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +5957,13 @@
         <v>82469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -5969,13 +5972,13 @@
         <v>49297</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -5984,13 +5987,13 @@
         <v>131766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6008,13 @@
         <v>155476</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H18" s="7">
         <v>103</v>
@@ -6020,13 +6023,13 @@
         <v>99999</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M18" s="7">
         <v>255</v>
@@ -6035,13 +6038,13 @@
         <v>255475</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6059,13 @@
         <v>110517</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -6071,13 +6074,13 @@
         <v>69623</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>402</v>
+        <v>197</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>168</v>
@@ -6086,10 +6089,10 @@
         <v>180140</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>406</v>
@@ -6140,10 +6143,10 @@
         <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6202,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6229,10 +6232,10 @@
         <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>108</v>
@@ -6241,13 +6244,13 @@
         <v>121547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6265,13 @@
         <v>66237</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -6277,13 +6280,13 @@
         <v>30677</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -6292,13 +6295,13 @@
         <v>96914</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6316,13 @@
         <v>134794</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>221</v>
+        <v>435</v>
       </c>
       <c r="H24" s="7">
         <v>75</v>
@@ -6328,13 +6331,13 @@
         <v>81857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M24" s="7">
         <v>197</v>
@@ -6343,13 +6346,13 @@
         <v>216651</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,13 +6367,13 @@
         <v>65729</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>284</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>52</v>
@@ -6379,13 +6382,13 @@
         <v>57002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -6394,13 +6397,13 @@
         <v>122731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,13 +6418,13 @@
         <v>33558</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6430,13 +6433,13 @@
         <v>19444</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -6445,13 +6448,13 @@
         <v>53003</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,7 +6510,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6519,13 +6522,13 @@
         <v>34456</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>352</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -6534,13 +6537,13 @@
         <v>27647</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>333</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -6549,13 +6552,13 @@
         <v>62102</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6573,13 @@
         <v>28065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>462</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>464</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -6585,13 +6588,13 @@
         <v>21913</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -6600,13 +6603,13 @@
         <v>49978</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6624,13 @@
         <v>49399</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -6636,13 +6639,13 @@
         <v>33574</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -6651,13 +6654,13 @@
         <v>82973</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>477</v>
+        <v>128</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6675,13 @@
         <v>32569</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>480</v>
+        <v>382</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -6687,13 +6690,13 @@
         <v>17039</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -6702,13 +6705,13 @@
         <v>49608</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>469</v>
+        <v>290</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>486</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,13 +6726,13 @@
         <v>21237</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6738,13 +6741,13 @@
         <v>5707</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -6753,13 +6756,13 @@
         <v>26944</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,7 +6818,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6827,13 +6830,13 @@
         <v>1236</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6842,13 +6845,13 @@
         <v>1925</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6857,13 +6860,13 @@
         <v>3161</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6881,13 @@
         <v>1729</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>83</v>
+        <v>504</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6893,13 +6896,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -6908,13 +6911,13 @@
         <v>1729</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6932,13 @@
         <v>946</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>507</v>
+        <v>327</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6944,13 +6947,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6959,13 +6962,13 @@
         <v>2129</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +6983,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6995,13 +6998,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -7010,13 +7013,13 @@
         <v>2058</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,13 +7034,13 @@
         <v>1050</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -7046,13 +7049,13 @@
         <v>1049</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>115</v>
+        <v>522</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -7061,13 +7064,13 @@
         <v>2099</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7138,13 @@
         <v>233113</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>526</v>
       </c>
       <c r="H40" s="7">
         <v>197</v>
@@ -7150,13 +7153,13 @@
         <v>204236</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>525</v>
+        <v>118</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M40" s="7">
         <v>407</v>
@@ -7165,13 +7168,13 @@
         <v>437349</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7189,13 @@
         <v>256773</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>532</v>
+        <v>153</v>
       </c>
       <c r="H41" s="7">
         <v>172</v>
@@ -7201,10 +7204,10 @@
         <v>173548</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>534</v>
+        <v>15</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>535</v>
@@ -7216,13 +7219,13 @@
         <v>430321</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>333</v>
+        <v>536</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>109</v>
+        <v>537</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7240,13 @@
         <v>476522</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>539</v>
+        <v>316</v>
       </c>
       <c r="H42" s="7">
         <v>341</v>
@@ -7252,13 +7255,13 @@
         <v>344816</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>87</v>
+        <v>543</v>
       </c>
       <c r="M42" s="7">
         <v>792</v>
@@ -7267,13 +7270,13 @@
         <v>821337</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,13 +7291,13 @@
         <v>308000</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>390</v>
+        <v>548</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H43" s="7">
         <v>209</v>
@@ -7303,13 +7306,13 @@
         <v>217952</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>278</v>
+        <v>550</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="M43" s="7">
         <v>494</v>
@@ -7318,13 +7321,13 @@
         <v>525952</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>548</v>
+        <v>155</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>283</v>
+        <v>552</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>417</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,13 +7342,13 @@
         <v>147914</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>551</v>
+        <v>410</v>
       </c>
       <c r="H44" s="7">
         <v>94</v>
@@ -7354,13 +7357,13 @@
         <v>96620</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M44" s="7">
         <v>232</v>
@@ -7369,13 +7372,13 @@
         <v>244534</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>453</v>
+        <v>560</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>556</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,7 +7456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53917430-45CB-4DAB-B7C9-64071FFE6BC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A4D345-FA94-483B-B6B4-1A348A8A6954}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7470,7 +7473,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7577,13 +7580,13 @@
         <v>3240</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7592,13 +7595,13 @@
         <v>1746</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>454</v>
+        <v>564</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7607,13 +7610,13 @@
         <v>4986</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,13 +7631,13 @@
         <v>2973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7643,13 +7646,13 @@
         <v>2016</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -7658,13 +7661,13 @@
         <v>4988</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,13 +7682,13 @@
         <v>9708</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -7694,13 +7697,13 @@
         <v>7060</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>575</v>
+        <v>236</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -7709,13 +7712,13 @@
         <v>16767</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,13 +7733,13 @@
         <v>160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -7745,13 +7748,13 @@
         <v>11928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -7760,13 +7763,13 @@
         <v>12088</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,13 +7784,13 @@
         <v>6504</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -7796,13 +7799,13 @@
         <v>4007</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -7811,13 +7814,13 @@
         <v>10511</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>592</v>
+        <v>284</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,13 +7888,13 @@
         <v>28122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -7900,13 +7903,13 @@
         <v>28368</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>597</v>
+        <v>23</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>97</v>
+        <v>600</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -7915,13 +7918,13 @@
         <v>56490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,13 +7939,13 @@
         <v>9852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -7951,13 +7954,13 @@
         <v>13516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>606</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>470</v>
+        <v>609</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -7966,13 +7969,13 @@
         <v>23368</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +7990,13 @@
         <v>40999</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -8002,13 +8005,13 @@
         <v>29484</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -8017,13 +8020,13 @@
         <v>70483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>481</v>
+        <v>619</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8041,13 @@
         <v>27041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -8053,13 +8056,13 @@
         <v>12732</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -8068,13 +8071,13 @@
         <v>39773</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8092,13 @@
         <v>4728</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -8104,13 +8107,13 @@
         <v>7254</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -8119,13 +8122,13 @@
         <v>11983</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>633</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,7 +8184,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8193,13 +8196,13 @@
         <v>28637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>634</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -8208,13 +8211,13 @@
         <v>26592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>634</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -8223,13 +8226,13 @@
         <v>55229</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>634</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>640</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,13 +8247,13 @@
         <v>15862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>640</v>
+        <v>428</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -8259,13 +8262,13 @@
         <v>12753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -8274,13 +8277,13 @@
         <v>28615</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>644</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,7 +8298,7 @@
         <v>32801</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>646</v>
+        <v>472</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>647</v>
@@ -8346,13 +8349,13 @@
         <v>24331</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>655</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -8364,10 +8367,10 @@
         <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -8376,7 +8379,7 @@
         <v>44233</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>659</v>
+        <v>164</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>660</v>
@@ -8418,7 +8421,7 @@
         <v>666</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>667</v>
+        <v>496</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -8427,7 +8430,7 @@
         <v>15371</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>667</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>668</v>
@@ -8489,7 +8492,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8504,10 +8507,10 @@
         <v>670</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>23</v>
+        <v>671</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -8516,13 +8519,13 @@
         <v>34139</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>673</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -8531,13 +8534,13 @@
         <v>128406</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8552,13 +8555,13 @@
         <v>19215</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>678</v>
+        <v>464</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -8567,13 +8570,13 @@
         <v>21388</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>680</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -8582,13 +8585,13 @@
         <v>40604</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8603,13 +8606,13 @@
         <v>37196</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>269</v>
+        <v>686</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -8618,13 +8621,13 @@
         <v>35790</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>685</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M24" s="7">
         <v>103</v>
@@ -8633,13 +8636,13 @@
         <v>72986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>689</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8654,13 +8657,13 @@
         <v>24139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -8669,13 +8672,13 @@
         <v>20411</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>693</v>
+        <v>229</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>695</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -8684,13 +8687,13 @@
         <v>44550</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,13 +8708,13 @@
         <v>6524</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>701</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -8720,13 +8723,13 @@
         <v>8951</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>204</v>
+        <v>701</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>332</v>
+        <v>702</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -8735,13 +8738,13 @@
         <v>15475</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,7 +8800,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8809,13 +8812,13 @@
         <v>18352</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>100</v>
+        <v>707</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -8824,13 +8827,13 @@
         <v>8776</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -8839,13 +8842,13 @@
         <v>27128</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>428</v>
+        <v>713</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8860,13 +8863,13 @@
         <v>15150</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>120</v>
+        <v>716</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -8875,13 +8878,13 @@
         <v>4904</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -8893,10 +8896,10 @@
         <v>415</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>372</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,13 +8914,13 @@
         <v>21793</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>717</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -8926,13 +8929,13 @@
         <v>12785</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -8941,13 +8944,13 @@
         <v>34578</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>275</v>
+        <v>726</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>464</v>
+        <v>727</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8962,13 +8965,13 @@
         <v>11943</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -8977,13 +8980,13 @@
         <v>11012</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="M31" s="7">
         <v>30</v>
@@ -8992,13 +8995,13 @@
         <v>22955</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9013,13 +9016,13 @@
         <v>2098</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -9028,13 +9031,13 @@
         <v>2586</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -9043,13 +9046,13 @@
         <v>4684</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9105,7 +9108,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9117,13 +9120,13 @@
         <v>1918</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -9132,13 +9135,13 @@
         <v>3488</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -9147,13 +9150,13 @@
         <v>5406</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9168,13 +9171,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -9183,13 +9186,13 @@
         <v>634</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -9198,13 +9201,13 @@
         <v>634</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9219,13 +9222,13 @@
         <v>1132</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9234,13 +9237,13 @@
         <v>1722</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -9249,13 +9252,13 @@
         <v>2854</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9270,13 +9273,13 @@
         <v>1410</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9285,13 +9288,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -9300,13 +9303,13 @@
         <v>1410</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>430</v>
+        <v>768</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9321,13 +9324,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -9336,13 +9339,13 @@
         <v>618</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -9351,13 +9354,13 @@
         <v>618</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9425,13 +9428,13 @@
         <v>174536</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>770</v>
+        <v>525</v>
       </c>
       <c r="H40" s="7">
         <v>132</v>
@@ -9440,13 +9443,13 @@
         <v>103109</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="M40" s="7">
         <v>240</v>
@@ -9455,13 +9458,13 @@
         <v>277645</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9476,13 +9479,13 @@
         <v>63052</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="H41" s="7">
         <v>76</v>
@@ -9491,13 +9494,13 @@
         <v>55211</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>780</v>
+        <v>287</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="M41" s="7">
         <v>132</v>
@@ -9506,13 +9509,13 @@
         <v>118263</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9527,13 +9530,13 @@
         <v>143628</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="H42" s="7">
         <v>169</v>
@@ -9542,13 +9545,13 @@
         <v>119714</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>791</v>
+        <v>82</v>
       </c>
       <c r="M42" s="7">
         <v>302</v>
@@ -9557,13 +9560,13 @@
         <v>263342</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9578,13 +9581,13 @@
         <v>89024</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="H43" s="7">
         <v>95</v>
@@ -9593,13 +9596,13 @@
         <v>75985</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>798</v>
+        <v>549</v>
       </c>
       <c r="M43" s="7">
         <v>174</v>
@@ -9608,13 +9611,13 @@
         <v>165010</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>799</v>
+        <v>550</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9629,13 +9632,13 @@
         <v>26674</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>427</v>
+        <v>804</v>
       </c>
       <c r="H44" s="7">
         <v>38</v>
@@ -9644,10 +9647,10 @@
         <v>31967</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>803</v>
+        <v>502</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>804</v>
+        <v>371</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>805</v>
@@ -9665,7 +9668,7 @@
         <v>807</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>147</v>
+        <v>808</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6702-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B7DB42-ACD7-42C8-997C-DD02B0056421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6560D59-0A16-45B3-B866-6AC776B7D474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{910B7B51-04F7-4069-A261-17BBFCFEFF00}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95B9B63B-E3A4-44E7-A2F9-C3FCB8B38BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="807">
   <si>
     <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>17,79%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,2365 +106,2359 @@
     <t>19,77%</t>
   </si>
   <si>
-    <t>12,52%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
   </si>
   <si>
     <t>31,05%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>33,58%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>4,88%</t>
   </si>
 </sst>
 </file>
@@ -2876,7 +2870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9484D9D-E191-4974-866D-E7D5C5117818}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7750DE47-6DA8-4F98-A788-A627D1DBB61B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3344,7 +3338,7 @@
         <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3353,13 @@
         <v>62619</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -3374,13 +3368,13 @@
         <v>42399</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -3389,13 +3383,13 @@
         <v>105018</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3404,13 @@
         <v>117972</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -3425,13 +3419,13 @@
         <v>96475</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>205</v>
@@ -3440,13 +3434,13 @@
         <v>214447</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3455,13 @@
         <v>72171</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -3476,13 +3470,13 @@
         <v>50515</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -3494,10 +3488,10 @@
         <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3506,13 @@
         <v>62890</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3527,13 +3521,13 @@
         <v>33141</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>91</v>
@@ -3542,13 +3536,13 @@
         <v>96031</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,7 +3598,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3616,13 +3610,13 @@
         <v>68663</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3631,10 +3625,10 @@
         <v>57137</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>111</v>
@@ -3799,13 +3793,13 @@
         <v>133629</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3814,13 @@
         <v>46157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -3835,13 +3829,13 @@
         <v>34550</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -3850,13 +3844,13 @@
         <v>80706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,7 +3924,7 @@
         <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>54</v>
@@ -3939,13 +3933,13 @@
         <v>61884</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -3957,10 +3951,10 @@
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3969,13 @@
         <v>48523</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -3990,13 +3984,13 @@
         <v>35177</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -4005,13 +3999,13 @@
         <v>83701</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4020,13 @@
         <v>140385</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>67</v>
@@ -4041,13 +4035,13 @@
         <v>75652</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>191</v>
@@ -4056,13 +4050,13 @@
         <v>216038</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4071,13 @@
         <v>84023</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -4092,13 +4086,13 @@
         <v>35637</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -4107,13 +4101,13 @@
         <v>119660</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4122,13 @@
         <v>36494</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -4143,13 +4137,13 @@
         <v>16990</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -4158,13 +4152,13 @@
         <v>53484</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,7 +4214,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4232,13 +4226,13 @@
         <v>37167</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4247,13 +4241,13 @@
         <v>17631</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -4262,13 +4256,13 @@
         <v>54798</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4277,13 @@
         <v>16698</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -4298,13 +4292,13 @@
         <v>10451</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -4313,13 +4307,13 @@
         <v>27149</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4328,13 @@
         <v>49319</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -4349,13 +4343,13 @@
         <v>12875</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>57</v>
@@ -4364,13 +4358,13 @@
         <v>62194</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4379,13 @@
         <v>30689</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -4400,13 +4394,13 @@
         <v>19509</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -4415,13 +4409,13 @@
         <v>50198</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4430,13 @@
         <v>23478</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4451,13 +4445,13 @@
         <v>9224</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -4466,13 +4460,13 @@
         <v>32702</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,7 +4522,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4540,13 +4534,13 @@
         <v>1017</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4555,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -4570,13 +4564,13 @@
         <v>1017</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4585,13 @@
         <v>1999</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4606,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -4621,10 +4615,10 @@
         <v>1999</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>247</v>
@@ -4642,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4660,10 +4654,10 @@
         <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -4675,7 +4669,7 @@
         <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>250</v>
@@ -4693,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -4711,10 +4705,10 @@
         <v>251</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -4726,7 +4720,7 @@
         <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>253</v>
@@ -4744,13 +4738,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4759,13 +4753,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -4774,13 +4768,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>81</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4842,13 @@
         <v>247447</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H40" s="7">
         <v>194</v>
@@ -4863,13 +4857,13 @@
         <v>211094</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M40" s="7">
         <v>426</v>
@@ -4878,13 +4872,13 @@
         <v>458541</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4893,13 @@
         <v>212644</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="H41" s="7">
         <v>139</v>
@@ -4917,10 +4911,10 @@
         <v>24</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M41" s="7">
         <v>334</v>
@@ -4929,13 +4923,13 @@
         <v>363369</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4944,13 @@
         <v>486671</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H42" s="7">
         <v>289</v>
@@ -4965,13 +4959,13 @@
         <v>309136</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M42" s="7">
         <v>749</v>
@@ -4980,13 +4974,13 @@
         <v>795807</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>46</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +4995,13 @@
         <v>293440</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H43" s="7">
         <v>156</v>
@@ -5016,13 +5010,13 @@
         <v>171347</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M43" s="7">
         <v>439</v>
@@ -5031,13 +5025,13 @@
         <v>464787</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>284</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5046,13 @@
         <v>178277</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H44" s="7">
         <v>96</v>
@@ -5067,13 +5061,13 @@
         <v>104240</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="M44" s="7">
         <v>259</v>
@@ -5082,13 +5076,13 @@
         <v>282517</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,7 +5138,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5166,7 +5160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F985D9D0-8A83-4A63-97A1-7A6EEC757BE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB366F4-FE17-4026-9D9D-5665B8E12075}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5183,7 +5177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5290,13 +5284,13 @@
         <v>13143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -5305,13 +5299,13 @@
         <v>18835</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5320,13 +5314,13 @@
         <v>31978</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,7 +5335,7 @@
         <v>12538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>306</v>
@@ -5392,13 +5386,13 @@
         <v>24634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -5407,13 +5401,13 @@
         <v>33197</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -5422,13 +5416,13 @@
         <v>57831</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5437,13 @@
         <v>20602</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -5458,13 +5452,13 @@
         <v>15751</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5473,13 +5467,13 @@
         <v>36353</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5488,13 @@
         <v>8192</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5509,13 +5503,13 @@
         <v>8516</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -5524,13 +5518,13 @@
         <v>16708</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5592,13 @@
         <v>50523</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5613,13 +5607,13 @@
         <v>41539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -5628,13 +5622,13 @@
         <v>92062</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5643,13 @@
         <v>65736</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -5664,13 +5658,13 @@
         <v>56105</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="M11" s="7">
         <v>121</v>
@@ -5682,10 +5676,10 @@
         <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5694,13 @@
         <v>111273</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>99</v>
@@ -5715,13 +5709,13 @@
         <v>95005</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>206</v>
@@ -5730,13 +5724,13 @@
         <v>206279</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>358</v>
+        <v>168</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,10 +5748,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -5766,13 +5760,13 @@
         <v>57503</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5781,13 +5775,13 @@
         <v>135062</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5796,13 @@
         <v>39095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5817,13 +5811,13 @@
         <v>23563</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -5832,13 +5826,13 @@
         <v>62658</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,7 +5888,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5906,13 +5900,13 @@
         <v>66345</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -5921,13 +5915,13 @@
         <v>60154</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -5939,10 +5933,10 @@
         <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,10 +5951,10 @@
         <v>82469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>386</v>
@@ -5990,10 +5984,10 @@
         <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6002,13 @@
         <v>155476</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H18" s="7">
         <v>103</v>
@@ -6023,13 +6017,13 @@
         <v>99999</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M18" s="7">
         <v>255</v>
@@ -6038,13 +6032,13 @@
         <v>255475</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,10 +6053,10 @@
         <v>110517</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>402</v>
@@ -6077,10 +6071,10 @@
         <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="M19" s="7">
         <v>168</v>
@@ -6092,10 +6086,10 @@
         <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6104,13 @@
         <v>44782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -6125,13 +6119,13 @@
         <v>38341</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -6140,13 +6134,13 @@
         <v>83123</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6208,13 @@
         <v>67410</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -6229,13 +6223,13 @@
         <v>54137</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>108</v>
@@ -6244,13 +6238,13 @@
         <v>121547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,10 +6259,10 @@
         <v>66237</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>426</v>
@@ -6397,13 +6391,13 @@
         <v>122731</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6412,13 @@
         <v>33558</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6433,13 +6427,13 @@
         <v>19444</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -6448,13 +6442,13 @@
         <v>53003</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,7 +6504,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6522,13 +6516,13 @@
         <v>34456</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -6537,13 +6531,13 @@
         <v>27647</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -6552,13 +6546,13 @@
         <v>62102</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,13 +6567,13 @@
         <v>28065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -6606,10 +6600,10 @@
         <v>473</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,13 +6618,13 @@
         <v>49399</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -6639,13 +6633,13 @@
         <v>33574</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -6654,13 +6648,13 @@
         <v>82973</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>128</v>
+        <v>482</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6669,13 @@
         <v>32569</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>382</v>
+        <v>485</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -6690,13 +6684,13 @@
         <v>17039</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -6705,13 +6699,13 @@
         <v>49608</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>487</v>
+        <v>177</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>401</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6720,13 @@
         <v>21237</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6741,13 +6735,13 @@
         <v>5707</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>491</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -6756,13 +6750,13 @@
         <v>26944</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,7 +6812,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6830,13 +6824,13 @@
         <v>1236</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6845,13 +6839,13 @@
         <v>1925</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6860,13 +6854,13 @@
         <v>3161</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,13 +6875,13 @@
         <v>1729</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6896,13 +6890,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -6911,13 +6905,13 @@
         <v>1729</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,13 +6926,13 @@
         <v>946</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>327</v>
+        <v>511</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6947,13 +6941,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6962,13 +6956,13 @@
         <v>2129</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +6977,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6998,13 +6992,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -7013,13 +7007,13 @@
         <v>2058</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7028,13 @@
         <v>1050</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -7049,13 +7043,13 @@
         <v>1049</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>522</v>
+        <v>401</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -7064,13 +7058,13 @@
         <v>2099</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,13 +7132,13 @@
         <v>233113</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H40" s="7">
         <v>197</v>
@@ -7153,13 +7147,13 @@
         <v>204236</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>118</v>
+        <v>531</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M40" s="7">
         <v>407</v>
@@ -7168,13 +7162,13 @@
         <v>437349</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>530</v>
+        <v>70</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,13 +7183,13 @@
         <v>256773</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>153</v>
+        <v>537</v>
       </c>
       <c r="H41" s="7">
         <v>172</v>
@@ -7204,13 +7198,13 @@
         <v>173548</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>15</v>
+        <v>539</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="M41" s="7">
         <v>411</v>
@@ -7219,13 +7213,13 @@
         <v>430321</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>536</v>
+        <v>421</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,13 +7234,13 @@
         <v>476522</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>316</v>
+        <v>544</v>
       </c>
       <c r="H42" s="7">
         <v>341</v>
@@ -7255,13 +7249,13 @@
         <v>344816</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="M42" s="7">
         <v>792</v>
@@ -7270,13 +7264,13 @@
         <v>821337</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,13 +7285,13 @@
         <v>308000</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H43" s="7">
         <v>209</v>
@@ -7306,13 +7300,13 @@
         <v>217952</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>363</v>
+        <v>284</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M43" s="7">
         <v>494</v>
@@ -7321,13 +7315,13 @@
         <v>525952</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>155</v>
+        <v>555</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,13 +7336,13 @@
         <v>147914</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>410</v>
+        <v>560</v>
       </c>
       <c r="H44" s="7">
         <v>94</v>
@@ -7357,13 +7351,13 @@
         <v>96620</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>558</v>
+        <v>165</v>
       </c>
       <c r="M44" s="7">
         <v>232</v>
@@ -7372,13 +7366,13 @@
         <v>244534</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>163</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,7 +7428,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +7450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A4D345-FA94-483B-B6B4-1A348A8A6954}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF4E3AC-7AD5-4BF3-AA43-15D2E2A687DC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7473,7 +7467,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7580,13 +7574,13 @@
         <v>3240</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7595,13 +7589,13 @@
         <v>1746</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7610,13 +7604,13 @@
         <v>4986</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,13 +7625,13 @@
         <v>2973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7646,13 +7640,13 @@
         <v>2016</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -7661,13 +7655,13 @@
         <v>4988</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,13 +7676,13 @@
         <v>9708</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -7697,13 +7691,13 @@
         <v>7060</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>236</v>
+        <v>585</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -7712,13 +7706,13 @@
         <v>16767</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,13 +7727,13 @@
         <v>160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -7748,13 +7742,13 @@
         <v>11928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -7763,13 +7757,13 @@
         <v>12088</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>590</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7778,13 @@
         <v>6504</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -7799,13 +7793,13 @@
         <v>4007</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -7814,13 +7808,13 @@
         <v>10511</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>284</v>
+        <v>601</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,13 +7882,13 @@
         <v>28122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -7903,13 +7897,13 @@
         <v>28368</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>23</v>
+        <v>606</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -7918,13 +7912,13 @@
         <v>56490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>604</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,13 +7933,13 @@
         <v>9852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>605</v>
+        <v>291</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -7954,13 +7948,13 @@
         <v>13516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>614</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -7969,13 +7963,13 @@
         <v>23368</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>610</v>
+        <v>457</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>473</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,13 +7984,13 @@
         <v>40999</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -8005,13 +7999,13 @@
         <v>29484</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -8020,13 +8014,13 @@
         <v>70483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>618</v>
+        <v>46</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,13 +8035,13 @@
         <v>27041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -8056,13 +8050,13 @@
         <v>12732</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>626</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -8071,13 +8065,13 @@
         <v>39773</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>627</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>629</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8092,13 +8086,13 @@
         <v>4728</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>632</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -8107,13 +8101,13 @@
         <v>7254</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>633</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>634</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>635</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -8122,13 +8116,13 @@
         <v>11983</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,7 +8178,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8196,13 +8190,13 @@
         <v>28637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>638</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>639</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -8211,13 +8205,13 @@
         <v>26592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>406</v>
+        <v>638</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -8226,13 +8220,13 @@
         <v>55229</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>638</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,13 +8241,13 @@
         <v>15862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>428</v>
+        <v>646</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -8262,13 +8256,13 @@
         <v>12753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>645</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -8277,13 +8271,13 @@
         <v>28615</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>650</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8298,13 +8292,13 @@
         <v>32801</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>472</v>
+        <v>652</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -8313,13 +8307,13 @@
         <v>32873</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -8328,13 +8322,13 @@
         <v>65674</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8349,13 +8343,13 @@
         <v>24331</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -8367,10 +8361,10 @@
         <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -8379,13 +8373,13 @@
         <v>44233</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>164</v>
+        <v>666</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8400,13 +8394,13 @@
         <v>6820</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -8415,13 +8409,13 @@
         <v>8552</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>674</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -8430,13 +8424,13 @@
         <v>15371</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8504,13 +8498,13 @@
         <v>94267</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -8519,13 +8513,13 @@
         <v>34139</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -8534,13 +8528,13 @@
         <v>128406</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8555,13 +8549,13 @@
         <v>19215</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -8573,10 +8567,10 @@
         <v>112</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -8585,13 +8579,13 @@
         <v>40604</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8606,13 +8600,13 @@
         <v>37196</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -8621,13 +8615,13 @@
         <v>35790</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>696</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="M24" s="7">
         <v>103</v>
@@ -8636,13 +8630,13 @@
         <v>72986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>690</v>
+        <v>427</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>540</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8657,13 +8651,13 @@
         <v>24139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>693</v>
+        <v>601</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -8672,13 +8666,13 @@
         <v>20411</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>702</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>152</v>
+        <v>312</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -8687,13 +8681,13 @@
         <v>44550</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8708,13 +8702,13 @@
         <v>6524</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -8723,13 +8717,13 @@
         <v>8951</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>712</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -8738,13 +8732,13 @@
         <v>15475</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>704</v>
+        <v>572</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8800,7 +8794,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8812,13 +8806,13 @@
         <v>18352</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>708</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -8827,13 +8821,13 @@
         <v>8776</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -8842,13 +8836,13 @@
         <v>27128</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>714</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8863,13 +8857,13 @@
         <v>15150</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -8878,13 +8872,13 @@
         <v>4904</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -8893,13 +8887,13 @@
         <v>20053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>116</v>
+        <v>727</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8914,13 +8908,13 @@
         <v>21793</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>729</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -8929,13 +8923,13 @@
         <v>12785</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -8944,13 +8938,13 @@
         <v>34578</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>728</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8965,13 +8959,13 @@
         <v>11943</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -8980,13 +8974,13 @@
         <v>11012</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>732</v>
+        <v>570</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>733</v>
+        <v>160</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>734</v>
+        <v>132</v>
       </c>
       <c r="M31" s="7">
         <v>30</v>
@@ -8995,13 +8989,13 @@
         <v>22955</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>724</v>
+        <v>643</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9016,13 +9010,13 @@
         <v>2098</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>738</v>
+        <v>293</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -9031,13 +9025,13 @@
         <v>2586</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -9046,13 +9040,13 @@
         <v>4684</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9108,7 +9102,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9120,13 +9114,13 @@
         <v>1918</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -9135,13 +9129,13 @@
         <v>3488</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -9150,13 +9144,13 @@
         <v>5406</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>752</v>
+        <v>395</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9171,13 +9165,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>694</v>
+        <v>757</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -9186,13 +9180,13 @@
         <v>634</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -9201,13 +9195,13 @@
         <v>634</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9222,13 +9216,13 @@
         <v>1132</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9237,13 +9231,13 @@
         <v>1722</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -9252,13 +9246,13 @@
         <v>2854</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9273,13 +9267,13 @@
         <v>1410</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9288,13 +9282,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>767</v>
+        <v>15</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -9303,13 +9297,13 @@
         <v>1410</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>768</v>
+        <v>416</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9324,13 +9318,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>694</v>
+        <v>757</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -9339,13 +9333,13 @@
         <v>618</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>770</v>
+        <v>25</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -9354,13 +9348,13 @@
         <v>618</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>772</v>
+        <v>52</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>773</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9428,13 +9422,13 @@
         <v>174536</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>774</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H40" s="7">
         <v>132</v>
@@ -9443,13 +9437,13 @@
         <v>103109</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>776</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>778</v>
       </c>
       <c r="M40" s="7">
         <v>240</v>
@@ -9458,13 +9452,13 @@
         <v>277645</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>779</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9479,13 +9473,13 @@
         <v>63052</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>782</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>784</v>
       </c>
       <c r="H41" s="7">
         <v>76</v>
@@ -9494,13 +9488,13 @@
         <v>55211</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>287</v>
+        <v>783</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>785</v>
+        <v>342</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>786</v>
+        <v>195</v>
       </c>
       <c r="M41" s="7">
         <v>132</v>
@@ -9509,13 +9503,13 @@
         <v>118263</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9530,13 +9524,13 @@
         <v>143628</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>791</v>
+        <v>65</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="H42" s="7">
         <v>169</v>
@@ -9545,13 +9539,13 @@
         <v>119714</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>82</v>
+        <v>791</v>
       </c>
       <c r="M42" s="7">
         <v>302</v>
@@ -9560,13 +9554,13 @@
         <v>263342</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9581,13 +9575,13 @@
         <v>89024</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>798</v>
+        <v>588</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>800</v>
+        <v>532</v>
       </c>
       <c r="H43" s="7">
         <v>95</v>
@@ -9596,13 +9590,13 @@
         <v>75985</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>151</v>
+        <v>487</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>549</v>
+        <v>796</v>
       </c>
       <c r="M43" s="7">
         <v>174</v>
@@ -9611,13 +9605,13 @@
         <v>165010</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>550</v>
+        <v>797</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>249</v>
+        <v>344</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9632,13 +9626,13 @@
         <v>26674</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="H44" s="7">
         <v>38</v>
@@ -9647,13 +9641,13 @@
         <v>31967</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>502</v>
+        <v>802</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>371</v>
+        <v>803</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M44" s="7">
         <v>58</v>
@@ -9662,13 +9656,13 @@
         <v>58642</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="P44" s="7" t="s">
-        <v>807</v>
-      </c>
       <c r="Q44" s="7" t="s">
-        <v>808</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9724,7 +9718,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6702-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6560D59-0A16-45B3-B866-6AC776B7D474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7225AC06-D586-4D84-BA9E-A608A9E5CC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95B9B63B-E3A4-44E7-A2F9-C3FCB8B38BEE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7C895BB9-8631-41C2-AD96-E5C0A46E25DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="809">
   <si>
     <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -223,7 +223,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>17,73%</t>
@@ -355,7 +355,7 @@
     <t>17,44%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>16,11%</t>
@@ -490,7 +490,7 @@
     <t>9,16%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>15,84%</t>
@@ -619,7 +619,7 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>23,62%</t>
@@ -751,7 +751,7 @@
     <t>20,23%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>33,71%</t>
@@ -805,6 +805,12 @@
     <t>26,42%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>15,59%</t>
   </si>
   <si>
@@ -1537,10 +1543,10 @@
     <t>14,04%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>37,09%</t>
@@ -1549,34 +1555,28 @@
     <t>79,33%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
   <si>
     <t>22,79%</t>
@@ -1585,87 +1585,87 @@
     <t>82,18%</t>
   </si>
   <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
     <t>33,5%</t>
   </si>
   <si>
@@ -1678,9 +1678,6 @@
     <t>33,25%</t>
   </si>
   <si>
-    <t>30,45%</t>
-  </si>
-  <si>
     <t>36,03%</t>
   </si>
   <si>
@@ -1741,724 +1738,733 @@
     <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
   </si>
   <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>7,76%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
   </si>
 </sst>
 </file>
@@ -2870,8 +2876,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7750DE47-6DA8-4F98-A788-A627D1DBB61B}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67576754-33DB-445D-BC90-CF2F2EE4976C}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3072,7 +3078,7 @@
         <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>29915</v>
+        <v>29914</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -3123,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>48128</v>
+        <v>48127</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -3276,7 +3282,7 @@
         <v>163</v>
       </c>
       <c r="N9" s="7">
-        <v>168426</v>
+        <v>168425</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -3996,7 +4002,7 @@
         <v>74</v>
       </c>
       <c r="N23" s="7">
-        <v>83701</v>
+        <v>83700</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>164</v>
@@ -4200,7 +4206,7 @@
         <v>519</v>
       </c>
       <c r="N27" s="7">
-        <v>593004</v>
+        <v>593003</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4830,55 +4836,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>232</v>
-      </c>
-      <c r="D40" s="7">
-        <v>247447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>256</v>
       </c>
       <c r="H40" s="7">
-        <v>194</v>
-      </c>
-      <c r="I40" s="7">
-        <v>211094</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
-        <v>426</v>
-      </c>
-      <c r="N40" s="7">
-        <v>458541</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,49 +4887,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>195</v>
-      </c>
-      <c r="D41" s="7">
-        <v>212644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H41" s="7">
-        <v>139</v>
-      </c>
-      <c r="I41" s="7">
-        <v>150724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
-        <v>334</v>
-      </c>
-      <c r="N41" s="7">
-        <v>363369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,49 +4932,43 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>460</v>
-      </c>
-      <c r="D42" s="7">
-        <v>486671</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="H42" s="7">
-        <v>289</v>
-      </c>
-      <c r="I42" s="7">
-        <v>309136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
-        <v>749</v>
-      </c>
-      <c r="N42" s="7">
-        <v>795807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,49 +4977,43 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>283</v>
-      </c>
-      <c r="D43" s="7">
-        <v>293440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="H43" s="7">
-        <v>156</v>
-      </c>
-      <c r="I43" s="7">
-        <v>171347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
-        <v>439</v>
-      </c>
-      <c r="N43" s="7">
-        <v>464787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>163</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,49 +5022,43 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>163</v>
-      </c>
-      <c r="D44" s="7">
-        <v>178277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="H44" s="7">
-        <v>96</v>
-      </c>
-      <c r="I44" s="7">
-        <v>104240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
-        <v>259</v>
-      </c>
-      <c r="N44" s="7">
-        <v>282517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,63 +5067,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>232</v>
+      </c>
+      <c r="D46" s="7">
+        <v>247447</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H46" s="7">
+        <v>194</v>
+      </c>
+      <c r="I46" s="7">
+        <v>211094</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M46" s="7">
+        <v>426</v>
+      </c>
+      <c r="N46" s="7">
+        <v>458541</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>195</v>
+      </c>
+      <c r="D47" s="7">
+        <v>212644</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H47" s="7">
+        <v>139</v>
+      </c>
+      <c r="I47" s="7">
+        <v>150724</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M47" s="7">
+        <v>334</v>
+      </c>
+      <c r="N47" s="7">
+        <v>363369</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>460</v>
+      </c>
+      <c r="D48" s="7">
+        <v>486671</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H48" s="7">
+        <v>289</v>
+      </c>
+      <c r="I48" s="7">
+        <v>309136</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M48" s="7">
+        <v>749</v>
+      </c>
+      <c r="N48" s="7">
+        <v>795807</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>283</v>
+      </c>
+      <c r="D49" s="7">
+        <v>293440</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H49" s="7">
+        <v>156</v>
+      </c>
+      <c r="I49" s="7">
+        <v>171347</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M49" s="7">
+        <v>439</v>
+      </c>
+      <c r="N49" s="7">
+        <v>464787</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>163</v>
+      </c>
+      <c r="D50" s="7">
+        <v>178277</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H50" s="7">
+        <v>96</v>
+      </c>
+      <c r="I50" s="7">
+        <v>104240</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M50" s="7">
+        <v>259</v>
+      </c>
+      <c r="N50" s="7">
+        <v>282517</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1333</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1418479</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>874</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>946541</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2207</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2365020</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>295</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5160,8 +5439,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB366F4-FE17-4026-9D9D-5665B8E12075}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C56271F-397A-4A48-87BD-65F4EB852EBE}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5177,7 +5456,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5284,13 +5563,13 @@
         <v>13143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -5299,13 +5578,13 @@
         <v>18835</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5314,13 +5593,13 @@
         <v>31978</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5614,13 @@
         <v>12538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5350,13 +5629,13 @@
         <v>15556</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -5365,13 +5644,13 @@
         <v>28093</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5665,13 @@
         <v>24634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -5401,13 +5680,13 @@
         <v>33197</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -5416,13 +5695,13 @@
         <v>57831</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5716,13 @@
         <v>20602</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -5452,13 +5731,13 @@
         <v>15751</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5467,13 +5746,13 @@
         <v>36353</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5767,13 @@
         <v>8192</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5503,13 +5782,13 @@
         <v>8516</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -5518,13 +5797,13 @@
         <v>16708</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5871,13 @@
         <v>50523</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5607,13 +5886,13 @@
         <v>41539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -5622,13 +5901,13 @@
         <v>92062</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5922,13 @@
         <v>65736</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -5658,13 +5937,13 @@
         <v>56105</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M11" s="7">
         <v>121</v>
@@ -5676,10 +5955,10 @@
         <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5973,13 @@
         <v>111273</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H12" s="7">
         <v>99</v>
@@ -5709,13 +5988,13 @@
         <v>95005</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M12" s="7">
         <v>206</v>
@@ -5727,10 +6006,10 @@
         <v>168</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,10 +6027,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -5760,13 +6039,13 @@
         <v>57503</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5778,10 +6057,10 @@
         <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +6075,13 @@
         <v>39095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5811,13 +6090,13 @@
         <v>23563</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -5826,10 +6105,10 @@
         <v>62658</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>97</v>
@@ -5900,13 +6179,13 @@
         <v>66345</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -5915,28 +6194,28 @@
         <v>60154</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
       </c>
       <c r="N16" s="7">
-        <v>126499</v>
+        <v>126498</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +6230,13 @@
         <v>82469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -5966,13 +6245,13 @@
         <v>49297</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -5981,13 +6260,13 @@
         <v>131766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +6281,13 @@
         <v>155476</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H18" s="7">
         <v>103</v>
@@ -6017,13 +6296,13 @@
         <v>99999</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M18" s="7">
         <v>255</v>
@@ -6032,13 +6311,13 @@
         <v>255475</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6332,13 @@
         <v>110517</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -6068,10 +6347,10 @@
         <v>69623</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>208</v>
@@ -6080,16 +6359,16 @@
         <v>168</v>
       </c>
       <c r="N19" s="7">
-        <v>180140</v>
+        <v>180139</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6383,13 @@
         <v>44782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -6119,13 +6398,13 @@
         <v>38341</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -6134,13 +6413,13 @@
         <v>83123</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,7 +6461,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6208,13 +6487,13 @@
         <v>67410</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -6223,13 +6502,13 @@
         <v>54137</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>108</v>
@@ -6238,13 +6517,13 @@
         <v>121547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6538,13 @@
         <v>66237</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -6274,13 +6553,13 @@
         <v>30677</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -6289,13 +6568,13 @@
         <v>96914</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6589,13 @@
         <v>134794</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H24" s="7">
         <v>75</v>
@@ -6325,13 +6604,13 @@
         <v>81857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M24" s="7">
         <v>197</v>
@@ -6340,13 +6619,13 @@
         <v>216651</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6640,13 @@
         <v>65729</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>52</v>
@@ -6376,13 +6655,13 @@
         <v>57002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -6391,13 +6670,13 @@
         <v>122731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,13 +6691,13 @@
         <v>33558</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6427,13 +6706,13 @@
         <v>19444</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -6442,13 +6721,13 @@
         <v>53003</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6795,13 @@
         <v>34456</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -6531,13 +6810,13 @@
         <v>27647</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -6546,13 +6825,13 @@
         <v>62102</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +6846,13 @@
         <v>28065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -6582,13 +6861,13 @@
         <v>21913</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -6597,13 +6876,13 @@
         <v>49978</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6897,13 @@
         <v>49399</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -6633,13 +6912,13 @@
         <v>33574</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -6648,13 +6927,13 @@
         <v>82973</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,13 +6948,13 @@
         <v>32569</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -6684,13 +6963,13 @@
         <v>17039</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -6702,10 +6981,10 @@
         <v>177</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,13 +6999,13 @@
         <v>21237</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6738,10 +7017,10 @@
         <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -6750,13 +7029,13 @@
         <v>26944</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +7103,13 @@
         <v>1236</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6839,13 +7118,13 @@
         <v>1925</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6854,13 +7133,13 @@
         <v>3161</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,19 +7148,19 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>1729</v>
+        <v>934</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>506</v>
+        <v>288</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6896,22 +7175,22 @@
         <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>1729</v>
+        <v>934</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,7 +7205,7 @@
         <v>946</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>511</v>
+        <v>91</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>239</v>
@@ -6956,13 +7235,13 @@
         <v>2129</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>515</v>
+        <v>355</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,13 +7256,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>517</v>
+        <v>56</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6992,13 +7271,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -7007,13 +7286,13 @@
         <v>2058</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7028,13 +7307,13 @@
         <v>1050</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -7043,13 +7322,13 @@
         <v>1049</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -7058,13 +7337,13 @@
         <v>2099</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,10 +7352,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7103,10 +7382,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7120,55 +7399,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>233113</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>528</v>
+        <v>241</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H40" s="7">
-        <v>197</v>
-      </c>
-      <c r="I40" s="7">
-        <v>204236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>530</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>531</v>
+        <v>256</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>532</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>437349</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>533</v>
+        <v>239</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,49 +7454,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>256773</v>
+        <v>795</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>535</v>
+        <v>240</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>536</v>
+        <v>176</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>537</v>
+        <v>60</v>
       </c>
       <c r="H41" s="7">
-        <v>172</v>
-      </c>
-      <c r="I41" s="7">
-        <v>173548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>538</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>539</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>540</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
-        <v>411</v>
+        <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>430321</v>
+        <v>795</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>421</v>
+        <v>240</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>541</v>
+        <v>176</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>515</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,49 +7503,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>476522</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>542</v>
+        <v>239</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>543</v>
+        <v>241</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="H42" s="7">
-        <v>341</v>
-      </c>
-      <c r="I42" s="7">
-        <v>344816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>545</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>546</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>547</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>821337</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>548</v>
+        <v>239</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>549</v>
+        <v>241</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,49 +7552,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>308000</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>551</v>
+        <v>239</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>552</v>
+        <v>241</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="H43" s="7">
-        <v>209</v>
-      </c>
-      <c r="I43" s="7">
-        <v>217952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>529</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>554</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>525952</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>555</v>
+        <v>239</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>556</v>
+        <v>241</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,49 +7601,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>147914</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>558</v>
+        <v>239</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>559</v>
+        <v>241</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="H44" s="7">
-        <v>94</v>
-      </c>
-      <c r="I44" s="7">
-        <v>96620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>561</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>562</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>244534</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>563</v>
+        <v>239</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>564</v>
+        <v>241</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,63 +7650,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>210</v>
+      </c>
+      <c r="D46" s="7">
+        <v>233113</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H46" s="7">
+        <v>197</v>
+      </c>
+      <c r="I46" s="7">
+        <v>204236</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="M46" s="7">
+        <v>407</v>
+      </c>
+      <c r="N46" s="7">
+        <v>437349</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>239</v>
+      </c>
+      <c r="D47" s="7">
+        <v>256773</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H47" s="7">
+        <v>172</v>
+      </c>
+      <c r="I47" s="7">
+        <v>173548</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="M47" s="7">
+        <v>411</v>
+      </c>
+      <c r="N47" s="7">
+        <v>430321</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>451</v>
+      </c>
+      <c r="D48" s="7">
+        <v>476522</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H48" s="7">
+        <v>341</v>
+      </c>
+      <c r="I48" s="7">
+        <v>344816</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="M48" s="7">
+        <v>792</v>
+      </c>
+      <c r="N48" s="7">
+        <v>821337</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>285</v>
+      </c>
+      <c r="D49" s="7">
+        <v>308000</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="H49" s="7">
+        <v>209</v>
+      </c>
+      <c r="I49" s="7">
+        <v>217952</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="M49" s="7">
+        <v>494</v>
+      </c>
+      <c r="N49" s="7">
+        <v>525952</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>138</v>
+      </c>
+      <c r="D50" s="7">
+        <v>147914</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H50" s="7">
+        <v>94</v>
+      </c>
+      <c r="I50" s="7">
+        <v>96620</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M50" s="7">
+        <v>232</v>
+      </c>
+      <c r="N50" s="7">
+        <v>244534</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>295</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7450,8 +8026,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF4E3AC-7AD5-4BF3-AA43-15D2E2A687DC}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43754171-89DF-405C-B72E-684436497C39}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7467,7 +8043,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7571,46 +8147,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>3240</v>
+        <v>2841</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>567</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1746</v>
+        <v>1603</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>569</v>
+        <v>186</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>4986</v>
+        <v>4444</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>573</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,46 +8198,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>2973</v>
+        <v>5788</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>2016</v>
+        <v>1894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>4988</v>
+        <v>7681</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,46 +8249,46 @@
         <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>9708</v>
+        <v>8745</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>7060</v>
+        <v>6135</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>16767</v>
+        <v>14880</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>588</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,46 +8300,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>11928</v>
+        <v>10073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>12088</v>
+        <v>10235</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>591</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>596</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,46 +8351,46 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>6504</v>
+        <v>5855</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>4007</v>
+        <v>3550</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>10511</v>
+        <v>9405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,7 +8402,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>22585</v>
+        <v>23392</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -7841,7 +8417,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="7">
-        <v>26756</v>
+        <v>23254</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -7856,7 +8432,7 @@
         <v>31</v>
       </c>
       <c r="N9" s="7">
-        <v>49340</v>
+        <v>46646</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -7879,46 +8455,46 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>28122</v>
+        <v>26747</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>28368</v>
+        <v>25260</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>606</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>56490</v>
+        <v>52007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>609</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,46 +8506,46 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>9852</v>
+        <v>9402</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>291</v>
+        <v>605</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>612</v>
+        <v>551</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>13516</v>
+        <v>11960</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>613</v>
+        <v>102</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>614</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>23368</v>
+        <v>21362</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>457</v>
+        <v>608</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,46 +8557,46 @@
         <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>40999</v>
+        <v>41875</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
       </c>
       <c r="I12" s="7">
-        <v>29484</v>
+        <v>26624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
       </c>
       <c r="N12" s="7">
-        <v>70483</v>
+        <v>68499</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>46</v>
+        <v>617</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,46 +8608,46 @@
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>27041</v>
+        <v>24704</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>12732</v>
+        <v>12077</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>625</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
       </c>
       <c r="N13" s="7">
-        <v>39773</v>
+        <v>36780</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>584</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,46 +8659,46 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>4728</v>
+        <v>4325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>630</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>7254</v>
+        <v>6416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>11983</v>
+        <v>10741</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,7 +8710,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="7">
-        <v>110743</v>
+        <v>107053</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -8149,7 +8725,7 @@
         <v>88</v>
       </c>
       <c r="I15" s="7">
-        <v>91354</v>
+        <v>82336</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -8164,7 +8740,7 @@
         <v>158</v>
       </c>
       <c r="N15" s="7">
-        <v>202097</v>
+        <v>189389</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -8187,46 +8763,46 @@
         <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>28637</v>
+        <v>27404</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>640</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>26592</v>
+        <v>24204</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>60</v>
+      </c>
+      <c r="N16" s="7">
+        <v>51608</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="M16" s="7">
-        <v>60</v>
-      </c>
-      <c r="N16" s="7">
-        <v>55229</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,46 +8814,46 @@
         <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>15862</v>
+        <v>15124</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>12753</v>
+        <v>12018</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
       </c>
       <c r="N17" s="7">
-        <v>28615</v>
+        <v>27142</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,7 +8865,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>32801</v>
+        <v>32007</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>652</v>
@@ -8304,7 +8880,7 @@
         <v>46</v>
       </c>
       <c r="I18" s="7">
-        <v>32873</v>
+        <v>30889</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>655</v>
@@ -8319,16 +8895,16 @@
         <v>79</v>
       </c>
       <c r="N18" s="7">
-        <v>65674</v>
+        <v>62896</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>658</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,46 +8916,46 @@
         <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>24331</v>
+        <v>22722</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>663</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
       </c>
       <c r="I19" s="7">
-        <v>19903</v>
+        <v>18065</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>662</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>664</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>665</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>44233</v>
+        <v>40787</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,46 +8967,46 @@
         <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>6820</v>
+        <v>6125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>669</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
       </c>
       <c r="I20" s="7">
-        <v>8552</v>
+        <v>7892</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
       </c>
       <c r="N20" s="7">
-        <v>15371</v>
+        <v>14017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>677</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8442,7 +9018,7 @@
         <v>103</v>
       </c>
       <c r="D21" s="7">
-        <v>108451</v>
+        <v>103383</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -8457,7 +9033,7 @@
         <v>139</v>
       </c>
       <c r="I21" s="7">
-        <v>100672</v>
+        <v>93067</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -8472,7 +9048,7 @@
         <v>242</v>
       </c>
       <c r="N21" s="7">
-        <v>209123</v>
+        <v>196449</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -8495,46 +9071,46 @@
         <v>41</v>
       </c>
       <c r="D22" s="7">
-        <v>94267</v>
+        <v>284722</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
       </c>
       <c r="I22" s="7">
-        <v>34139</v>
+        <v>31445</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>503</v>
+        <v>676</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
       </c>
       <c r="N22" s="7">
-        <v>128406</v>
+        <v>316168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8546,46 +9122,46 @@
         <v>19</v>
       </c>
       <c r="D23" s="7">
-        <v>19215</v>
+        <v>18287</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>686</v>
+        <v>455</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>465</v>
+        <v>683</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
       </c>
       <c r="I23" s="7">
-        <v>21388</v>
+        <v>19667</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>684</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
       </c>
       <c r="N23" s="7">
-        <v>40604</v>
+        <v>37954</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8597,46 +9173,46 @@
         <v>42</v>
       </c>
       <c r="D24" s="7">
-        <v>37196</v>
+        <v>36498</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>300</v>
+        <v>562</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
       </c>
       <c r="I24" s="7">
-        <v>35790</v>
+        <v>33951</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="M24" s="7">
         <v>103</v>
       </c>
       <c r="N24" s="7">
-        <v>72986</v>
+        <v>70449</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>698</v>
+        <v>332</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>427</v>
+        <v>695</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8648,46 +9224,46 @@
         <v>22</v>
       </c>
       <c r="D25" s="7">
-        <v>24139</v>
+        <v>21488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>700</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>601</v>
+        <v>698</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>20411</v>
+        <v>18315</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>312</v>
+        <v>700</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
       </c>
       <c r="N25" s="7">
-        <v>44550</v>
+        <v>39803</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8699,46 +9275,46 @@
         <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>6524</v>
+        <v>6174</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>707</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>709</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
       </c>
       <c r="I26" s="7">
-        <v>8951</v>
+        <v>8201</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>711</v>
+        <v>672</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
       </c>
       <c r="N26" s="7">
-        <v>15475</v>
+        <v>14376</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>572</v>
+        <v>711</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8750,7 +9326,7 @@
         <v>130</v>
       </c>
       <c r="D27" s="7">
-        <v>181341</v>
+        <v>367170</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -8765,7 +9341,7 @@
         <v>187</v>
       </c>
       <c r="I27" s="7">
-        <v>120679</v>
+        <v>111580</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -8780,7 +9356,7 @@
         <v>317</v>
       </c>
       <c r="N27" s="7">
-        <v>302020</v>
+        <v>478750</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -8803,46 +9379,46 @@
         <v>19</v>
       </c>
       <c r="D28" s="7">
-        <v>18352</v>
+        <v>17314</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>716</v>
+        <v>313</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>714</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
       </c>
       <c r="I28" s="7">
-        <v>8776</v>
+        <v>8090</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>717</v>
+        <v>388</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
       </c>
       <c r="N28" s="7">
-        <v>27128</v>
+        <v>25404</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>131</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8854,40 +9430,40 @@
         <v>16</v>
       </c>
       <c r="D29" s="7">
-        <v>15150</v>
+        <v>14288</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>722</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>723</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
       </c>
       <c r="I29" s="7">
-        <v>4904</v>
+        <v>4566</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>726</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
       </c>
       <c r="N29" s="7">
-        <v>20053</v>
+        <v>18854</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>417</v>
+        <v>726</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>727</v>
@@ -8905,46 +9481,46 @@
         <v>23</v>
       </c>
       <c r="D30" s="7">
-        <v>21793</v>
+        <v>20610</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>729</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>731</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
       </c>
       <c r="I30" s="7">
-        <v>12785</v>
+        <v>11741</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>733</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>734</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
       </c>
       <c r="N30" s="7">
-        <v>34578</v>
+        <v>32351</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>735</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8956,43 +9532,43 @@
         <v>13</v>
       </c>
       <c r="D31" s="7">
-        <v>11943</v>
+        <v>10655</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>737</v>
+        <v>313</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>738</v>
+        <v>229</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
       </c>
       <c r="I31" s="7">
-        <v>11012</v>
+        <v>10039</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>570</v>
+        <v>737</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>160</v>
+        <v>738</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>132</v>
+        <v>739</v>
       </c>
       <c r="M31" s="7">
         <v>30</v>
       </c>
       <c r="N31" s="7">
-        <v>22955</v>
+        <v>20694</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>643</v>
+        <v>740</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>740</v>
+        <v>621</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>741</v>
@@ -9007,7 +9583,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>2098</v>
+        <v>1971</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>742</v>
@@ -9016,13 +9592,13 @@
         <v>239</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>293</v>
+        <v>635</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>2586</v>
+        <v>2363</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>743</v>
@@ -9037,7 +9613,7 @@
         <v>6</v>
       </c>
       <c r="N32" s="7">
-        <v>4684</v>
+        <v>4334</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>746</v>
@@ -9046,7 +9622,7 @@
         <v>747</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>748</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9058,7 +9634,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="7">
-        <v>69336</v>
+        <v>64838</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -9073,7 +9649,7 @@
         <v>66</v>
       </c>
       <c r="I33" s="7">
-        <v>40063</v>
+        <v>36800</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -9088,7 +9664,7 @@
         <v>139</v>
       </c>
       <c r="N33" s="7">
-        <v>109399</v>
+        <v>101637</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -9108,49 +9684,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>1918</v>
+        <v>1036</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>749</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>751</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
       </c>
       <c r="I34" s="7">
-        <v>3488</v>
+        <v>3265</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="M34" s="7">
+        <v>9</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4301</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="M34" s="7">
-        <v>10</v>
-      </c>
-      <c r="N34" s="7">
-        <v>5406</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9171,37 +9747,37 @@
         <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>757</v>
+        <v>254</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>634</v>
+        <v>591</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>634</v>
+        <v>591</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,46 +9789,46 @@
         <v>2</v>
       </c>
       <c r="D36" s="7">
-        <v>1132</v>
+        <v>1058</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
       </c>
       <c r="I36" s="7">
-        <v>1722</v>
+        <v>1635</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
       </c>
       <c r="N36" s="7">
-        <v>2854</v>
+        <v>2693</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>767</v>
+        <v>178</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>578</v>
+        <v>764</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9264,16 +9840,16 @@
         <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>1410</v>
+        <v>1448</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9294,16 +9870,16 @@
         <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>1410</v>
+        <v>1448</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>416</v>
+        <v>113</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9324,37 +9900,37 @@
         <v>241</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>757</v>
+        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>25</v>
+        <v>769</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>52</v>
+        <v>771</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>299</v>
+        <v>772</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9363,10 +9939,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="7">
-        <v>4460</v>
+        <v>3542</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -9381,7 +9957,7 @@
         <v>12</v>
       </c>
       <c r="I39" s="7">
-        <v>6462</v>
+        <v>6073</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -9393,10 +9969,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N39" s="7">
-        <v>10922</v>
+        <v>9615</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -9410,55 +9986,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>174536</v>
+        <v>746</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>773</v>
+        <v>240</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>310</v>
+        <v>176</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>774</v>
+        <v>60</v>
       </c>
       <c r="H40" s="7">
-        <v>132</v>
-      </c>
-      <c r="I40" s="7">
-        <v>103109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>775</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>776</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>746</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="N40" s="7">
-        <v>277645</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>777</v>
-      </c>
       <c r="P40" s="7" t="s">
-        <v>778</v>
+        <v>176</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>779</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9467,49 +10041,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>63052</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>780</v>
+        <v>239</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>781</v>
+        <v>241</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>782</v>
+        <v>526</v>
       </c>
       <c r="H41" s="7">
-        <v>76</v>
-      </c>
-      <c r="I41" s="7">
-        <v>55211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>783</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>118263</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>784</v>
+        <v>239</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>785</v>
+        <v>241</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>786</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9518,49 +10090,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>143628</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>787</v>
+        <v>239</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>788</v>
+        <v>526</v>
       </c>
       <c r="H42" s="7">
-        <v>169</v>
-      </c>
-      <c r="I42" s="7">
-        <v>119714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>789</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>790</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>791</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>263342</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>792</v>
+        <v>239</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>793</v>
+        <v>241</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>794</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9569,49 +10139,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>89024</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>588</v>
+        <v>239</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>795</v>
+        <v>241</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H43" s="7">
-        <v>95</v>
-      </c>
-      <c r="I43" s="7">
-        <v>75985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>530</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>487</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>796</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>165010</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>797</v>
+        <v>239</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>344</v>
+        <v>241</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>798</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9620,49 +10188,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>26674</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>799</v>
+        <v>239</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>800</v>
+        <v>241</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>801</v>
+        <v>526</v>
       </c>
       <c r="H44" s="7">
-        <v>38</v>
-      </c>
-      <c r="I44" s="7">
-        <v>31967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>802</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>803</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>804</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>58642</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>805</v>
+        <v>239</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>806</v>
+        <v>241</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>412</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9671,63 +10237,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>746</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>746</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>108</v>
+      </c>
+      <c r="D46" s="7">
+        <v>360810</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="H46" s="7">
+        <v>132</v>
+      </c>
+      <c r="I46" s="7">
+        <v>93867</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="M46" s="7">
+        <v>240</v>
+      </c>
+      <c r="N46" s="7">
+        <v>454678</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>56</v>
+      </c>
+      <c r="D47" s="7">
+        <v>62889</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="H47" s="7">
+        <v>76</v>
+      </c>
+      <c r="I47" s="7">
+        <v>50695</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M47" s="7">
+        <v>132</v>
+      </c>
+      <c r="N47" s="7">
+        <v>113585</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>133</v>
+      </c>
+      <c r="D48" s="7">
+        <v>140793</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="H48" s="7">
+        <v>169</v>
+      </c>
+      <c r="I48" s="7">
+        <v>110975</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="M48" s="7">
+        <v>302</v>
+      </c>
+      <c r="N48" s="7">
+        <v>251768</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>79</v>
+      </c>
+      <c r="D49" s="7">
+        <v>81179</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="H49" s="7">
+        <v>95</v>
+      </c>
+      <c r="I49" s="7">
+        <v>68568</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="M49" s="7">
+        <v>174</v>
+      </c>
+      <c r="N49" s="7">
+        <v>149747</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>20</v>
+      </c>
+      <c r="D50" s="7">
+        <v>24451</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="H50" s="7">
+        <v>38</v>
+      </c>
+      <c r="I50" s="7">
+        <v>29004</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="M50" s="7">
+        <v>58</v>
+      </c>
+      <c r="N50" s="7">
+        <v>53455</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>396</v>
       </c>
-      <c r="D45" s="7">
-        <v>496914</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>670123</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>510</v>
       </c>
-      <c r="I45" s="7">
-        <v>385987</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>353110</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>906</v>
       </c>
-      <c r="N45" s="7">
-        <v>882902</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>295</v>
+      <c r="N51" s="7">
+        <v>1023233</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
